--- a/Square Mileage.xlsx
+++ b/Square Mileage.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26500" windowHeight="16620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -267,10 +267,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -575,6 +581,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1424,6 +1433,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="61" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Square Mileage.xlsx
+++ b/Square Mileage.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="15960" yWindow="460" windowWidth="12840" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>Continent</t>
   </si>
@@ -59,156 +59,6 @@
     <t>U.S. States</t>
   </si>
   <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Maiine</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Montana</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>South Daokota</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
     <t>Land Sq. mi (mi^2)</t>
   </si>
   <si>
@@ -261,6 +111,159 @@
   </si>
   <si>
     <t>META-ANALYSIS</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO </t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MO </t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
   </si>
 </sst>
 </file>
@@ -584,10 +587,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,19 +606,19 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -626,7 +629,7 @@
         <v>9.5399999999999991</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>52423</v>
@@ -638,7 +641,7 @@
         <v>1673</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>191308</v>
@@ -652,7 +655,7 @@
         <v>6.8879999999999999</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>656424</v>
@@ -664,7 +667,7 @@
         <v>86051</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>292589</v>
@@ -678,7 +681,7 @@
         <v>3.931</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>114006</v>
@@ -690,7 +693,7 @@
         <v>364</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>299170</v>
@@ -704,7 +707,7 @@
         <v>11.73</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>53182</v>
@@ -716,7 +719,7 @@
         <v>1107</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>5469</v>
@@ -730,7 +733,7 @@
         <v>17.21</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>163707</v>
@@ -742,10 +745,10 @@
         <v>7734</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -756,7 +759,7 @@
         <v>2.97</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>104100</v>
@@ -768,7 +771,7 @@
         <v>371</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>444100</v>
@@ -782,7 +785,7 @@
         <v>3.2919999999999998</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>5544</v>
@@ -794,15 +797,15 @@
         <v>698</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>2489</v>
@@ -814,7 +817,7 @@
         <v>535</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="H9">
         <v>507900</v>
@@ -822,7 +825,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>59988</v>
@@ -834,7 +837,7 @@
         <v>5991</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="H10">
         <v>71992</v>
@@ -842,7 +845,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>59441</v>
@@ -854,15 +857,15 @@
         <v>1522</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>6459</v>
@@ -874,15 +877,15 @@
         <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>83574</v>
@@ -894,15 +897,15 @@
         <v>823</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <v>57918</v>
@@ -916,7 +919,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>36420</v>
@@ -930,7 +933,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>56276</v>
@@ -944,7 +947,7 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>82282</v>
@@ -958,7 +961,7 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D18">
         <v>40411</v>
@@ -972,7 +975,7 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D19">
         <v>51843</v>
@@ -986,7 +989,7 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>35387</v>
@@ -1000,7 +1003,7 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D21">
         <v>12407</v>
@@ -1014,7 +1017,7 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D22">
         <v>10555</v>
@@ -1028,7 +1031,7 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D23">
         <v>96810</v>
@@ -1042,7 +1045,7 @@
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D24">
         <v>86943</v>
@@ -1056,7 +1059,7 @@
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D25">
         <v>48434</v>
@@ -1070,7 +1073,7 @@
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D26">
         <v>69709</v>
@@ -1084,7 +1087,7 @@
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D27">
         <v>147046</v>
@@ -1098,7 +1101,7 @@
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D28">
         <v>77358</v>
@@ -1112,7 +1115,7 @@
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D29">
         <v>110567</v>
@@ -1126,7 +1129,7 @@
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D30">
         <v>9351</v>
@@ -1140,7 +1143,7 @@
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D31">
         <v>8722</v>
@@ -1154,7 +1157,7 @@
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D32">
         <v>121598</v>
@@ -1168,7 +1171,7 @@
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D33">
         <v>54475</v>
@@ -1182,7 +1185,7 @@
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D34">
         <v>52672</v>
@@ -1196,7 +1199,7 @@
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D35">
         <v>70704</v>
@@ -1210,7 +1213,7 @@
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D36">
         <v>44828</v>
@@ -1224,7 +1227,7 @@
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D37">
         <v>69903</v>
@@ -1238,7 +1241,7 @@
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D38">
         <v>98386</v>
@@ -1252,7 +1255,7 @@
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D39">
         <v>46058</v>
@@ -1266,7 +1269,7 @@
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D40">
         <v>1545</v>
@@ -1280,7 +1283,7 @@
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D41">
         <v>32007</v>
@@ -1294,7 +1297,7 @@
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D42">
         <v>77121</v>
@@ -1308,7 +1311,7 @@
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D43">
         <v>42146</v>
@@ -1322,7 +1325,7 @@
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D44">
         <v>268601</v>
@@ -1336,7 +1339,7 @@
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D45">
         <v>84904</v>
@@ -1350,7 +1353,7 @@
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D46">
         <v>9615</v>
@@ -1364,7 +1367,7 @@
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D47">
         <v>42769</v>
@@ -1378,7 +1381,7 @@
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D48">
         <v>71303</v>
@@ -1392,7 +1395,7 @@
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D49">
         <v>24231</v>
@@ -1406,7 +1409,7 @@
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D50">
         <v>65503</v>
@@ -1420,7 +1423,7 @@
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D51">
         <v>97818</v>
@@ -1430,6 +1433,14 @@
       </c>
       <c r="F51">
         <v>714</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52">
+        <v>3515</v>
       </c>
     </row>
   </sheetData>

--- a/Square Mileage.xlsx
+++ b/Square Mileage.xlsx
@@ -589,7 +589,7 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
